--- a/Simple_XLS_Importer/data/Map_of_donors_Ongoing_Final_funding.xlsx
+++ b/Simple_XLS_Importer/data/Map_of_donors_Ongoing_Final_funding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="555" windowWidth="20625" windowHeight="11760"/>
+    <workbookView xWindow="3465" yWindow="555" windowWidth="20625" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
   <si>
     <t>ISO3</t>
   </si>
@@ -420,6 +420,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: In the original dataset each observation was a project. In order to ingest it in the LB we aggregated all projects by target country ("country_names")</t>
     </r>
@@ -432,6 +433,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Looking at "activity_end_dt" we differenciated between on-going and concluded projects; Project are labelled "conlcuded" if "activity_end_date" is equal or smaller than Dec_2015</t>
     </r>
@@ -444,6 +446,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: All projects still in operation in Jan 2016; If a project ended in January 2016 will be considered "ogoing", while a project ended in Dec 2015 is concluded</t>
     </r>
@@ -457,6 +460,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Where a single project was implemented in multiple countries the same share of total foundings have been allocated to each country included in the project as a beneficiary</t>
     </r>
@@ -469,6 +473,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: for the generation of "N° of target countries for each project" column: NA when "country_names"="Global relevance"; No value when "country_names" is missing</t>
     </r>
@@ -481,6 +486,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Only project with full information on "activity_start_date", "actiity_end_date" will be included in the dataset for ingestion; Project without full info on fundings have not been deleted.</t>
     </r>
@@ -493,6 +499,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Project ID's have been added to the original file, so that changes from the original dataset to the intermediate and to the final one can be tracked</t>
     </r>
@@ -518,9 +525,6 @@
   </si>
   <si>
     <t>dataset_internal_id</t>
-  </si>
-  <si>
-    <t>MOD-1</t>
   </si>
   <si>
     <t>indicator_internal_id</t>
@@ -554,6 +558,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -565,29 +570,34 @@
       <i/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -999,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -1013,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>138</v>
@@ -2178,8 +2188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2197,23 +2207,23 @@
         <v>143</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Simple_XLS_Importer/data/Map_of_donors_Ongoing_Final_funding.xlsx
+++ b/Simple_XLS_Importer/data/Map_of_donors_Ongoing_Final_funding.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="150">
   <si>
     <t>ISO3</t>
   </si>
@@ -540,6 +540,9 @@
   </si>
   <si>
     <t>MOD-O-F</t>
+  </si>
+  <si>
+    <t>MOD</t>
   </si>
 </sst>
 </file>
@@ -2189,7 +2192,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2207,7 +2210,7 @@
         <v>143</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2">
